--- a/PMMA film in air.xlsx
+++ b/PMMA film in air.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazisadman/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazisadman/Documents/GitHub/QCM-D-Analysis-GUI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E34A70-1300-D742-8D7D-1FC0953FA3FF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEEFA59-9137-1745-9F2D-70F81CD50422}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14420" xr2:uid="{02A3598D-3624-2340-AED5-872782965B45}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,7 +632,7 @@
         <v>-147477.36861563101</v>
       </c>
       <c r="G10">
-        <v>44.050220470124721</v>
+        <v>44.050220470120003</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
